--- a/experimentos CNN.xlsx
+++ b/experimentos CNN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>CNN - Experimentos</t>
   </si>
@@ -60,13 +60,7 @@
     <t>Dataset</t>
   </si>
   <si>
-    <t>imagens\lfw2\Train.mat; imagens\lfw2\Test.mat</t>
-  </si>
-  <si>
     <t>Obs:</t>
-  </si>
-  <si>
-    <t>Imagem por canal</t>
   </si>
   <si>
     <t>Python</t>
@@ -229,12 +223,391 @@
 X_test = X_test.astype('float32')/255</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Imagem por canal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+28,28,2,2200
+28,28,2,1000</t>
+    </r>
+  </si>
+  <si>
+    <t>imagens\lfw2\Train_28_28_2c.mat; 
+imagens\lfw2\Test_28_28_2c.mat</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Rodolfo\\Documents\\algoritmos-git\\custom_cnn\\Data\\Processados\\100_100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Imagem por canal:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+X_train: (1800, 100, 100, 1)
+X_val: (400, 100,100, 2)
+X_test: (1000, 10,100,2)
+# rescale [0,255] --&gt; [0,1]
+X_train = X_train.astype('float32')/255
+X_test = X_test.astype('float32')/255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_3.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='same', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=32, kernel_size=2, padding='same', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=64, kernel_size=2, padding='same', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(500, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+# train the model
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=100,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>Epoch 00008: val_loss improved from 0.60814 to 0.59065, saving model to model_3.weights.best.hdf5
+Epoch 9/500
+ - 9s - loss: 0.5564 - acc: 0.7078 - val_loss: 0.6220 - val_acc: 0.6650</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.697</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.5</t>
+  </si>
+  <si>
+    <t>Epoch 00002: val_loss improved from 0.69594 to 0.68979, saving model to model_4.weights.best.hdf5
+Epoch 3/500
+ - 37s - loss: 0.6948 - acc: 0.5278 - val_loss: 0.7062 - val_acc: 0.4600</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_4.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='same', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=32, kernel_size=2, padding='same', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=64, kernel_size=2, padding='same', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(500, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=100,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Imagem concatenada:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+X_train: (1800, 200, 100, 1)
+X_val: (400, 200, 100, 1)
+X_test: (1000, 200, 100, 1)
+# rescale [0,255] --&gt; [0,1]
+X_train = X_train.astype('float32')/255
+X_test = X_test.astype('float32')/255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_6.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=64, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(250, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='sigmoid'))
+# train the model
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=64, epochs=100,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Epoch 00015: val_loss improved from 0.60440 to 0.56086, saving model to model_6.weights.best.hdf5
+Epoch 16/100
+ - 7s - loss: 0.5493 - acc: 0.7083 - val_loss: 0.6946 - val_acc: 0.5950</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_7.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=64, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(250, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=30,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>Epoch 00001: val_loss improved from inf to 0.69206, saving model to model_7.weights.best.hdf5
+Não aprendeu, chutou tudo numa classe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_9.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=64, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=128, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(500, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+# train the model
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=20,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>Epoch 00009: val_loss improved from 0.66938 to 0.63044, saving model to model_9.weights.best.hdf5</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.706</t>
+  </si>
+  <si>
+    <t>Epoch 00008: val_loss improved from 0.69070 to 0.68610, saving model to model_10.weights.best.hdf5
+Epoch 9/20
+ - 40s - loss: 0.6822 - acc: 0.5750 - val_loss: 0.6870 - val_acc: 0.5475</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.532</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_10.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=64, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=128, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(500, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=20,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +633,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,9 +694,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -326,6 +702,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -632,22 +1014,22 @@
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" customWidth="1"/>
+    <col min="4" max="4" width="125.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
@@ -657,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -672,15 +1054,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="135">
+    <row r="3" spans="1:7" ht="120">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -693,110 +1075,122 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="405">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="315">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="315">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="405">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="409.5">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5"/>
@@ -816,14 +1210,26 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+    <row r="15" spans="1:7" ht="315">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5"/>
@@ -833,6 +1239,126 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="330">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="330">
+      <c r="A21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="345">
+      <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="330">
+      <c r="A25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/experimentos CNN.xlsx
+++ b/experimentos CNN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>CNN - Experimentos</t>
   </si>
@@ -602,6 +602,128 @@
           verbose=2, shuffle=True)</t>
     </r>
   </si>
+  <si>
+    <t>C:\\Users\\Rodolfo\\Documents\\algoritmos-git\\custom_cnn\\Data\\Processados\\28-28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Imagem por canal:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+X_train: (1800, 28,28,2)
+X_val: (400, 28,28, 2)
+X_test: (1000, 28,28,2)
+# rescale [0,255] --&gt; [0,1]
+X_train = X_train.astype('float32')/255
+X_test = X_test.astype('float32')/255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_12.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(250, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+# train the model
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=20,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>Epoch 00019: val_loss improved from 0.61492 to 0.60026, saving model to model_12.weights.best.hdf5
+Epoch 20/20
+ - 2s - loss: 0.5029 - acc: 0.7583 - val_loss: 0.7102 - val_acc: 0.5950</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.705</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_13.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(250, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+# train the model
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=100,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test accuracy: 0.722</t>
+  </si>
+  <si>
+    <t>Epoch 00016: val_loss improved from 0.61066 to 0.60803, saving model to model_13.weights.best.hdf5</t>
+  </si>
 </sst>
 </file>
 
@@ -609,14 +731,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -643,13 +757,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -679,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,7 +821,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -697,16 +830,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1003,54 +1161,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G31" sqref="B31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="125.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="21">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1058,10 +1216,10 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1077,8 +1235,8 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1086,8 +1244,8 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1095,8 +1253,8 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1104,8 +1262,8 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1113,8 +1271,8 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1122,15 +1280,15 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="315">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1139,10 +1297,10 @@
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1309,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="315">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1160,19 +1318,19 @@
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="409.5">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:7" ht="345">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1181,37 +1339,37 @@
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="315">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1220,37 +1378,37 @@
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="330">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1259,37 +1417,37 @@
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="330">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1298,28 +1456,28 @@
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="345">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1328,19 +1486,19 @@
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="330">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1349,15 +1507,51 @@
       <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="285">
+      <c r="B29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="285">
+      <c r="B31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/experimentos CNN.xlsx
+++ b/experimentos CNN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>CNN - Experimentos</t>
   </si>
@@ -460,91 +460,8 @@
     <t>Test accuracy: 0.7</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">model_7.weights.best.hdf5'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-model = Sequential()
-model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
-model.add(MaxPooling2D(pool_size=2))
-model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
-model.add(MaxPooling2D(pool_size=2))
-model.add(Conv2D(filters=64, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
-model.add(MaxPooling2D(pool_size=2))
-model.add(Dropout(0.3))
-model.add(Flatten())
-model.add(Dense(250, activation='relu'))
-model.add(Dropout(0.3))
-model.add(Dense(num_classes, activation='softmax'))
-checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
-                               save_best_only=True)
-hist = model.fit(X_train, y_train, batch_size=32, epochs=30,
-          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
-          verbose=2, shuffle=True)</t>
-    </r>
-  </si>
-  <si>
     <t>Epoch 00001: val_loss improved from inf to 0.69206, saving model to model_7.weights.best.hdf5
 Não aprendeu, chutou tudo numa classe</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">model_9.weights.best.hdf5'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-model = Sequential()
-model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
-model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
-model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
-model.add(MaxPooling2D(pool_size=2))
-model.add(Conv2D(filters=64, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
-model.add(MaxPooling2D(pool_size=2))
-model.add(Conv2D(filters=128, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
-model.add(MaxPooling2D(pool_size=2))
-model.add(Dropout(0.3))
-model.add(Flatten())
-model.add(Dense(500, activation='relu'))
-model.add(Dropout(0.3))
-model.add(Dense(num_classes, activation='softmax'))
-# train the model
-checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
-                               save_best_only=True)
-hist = model.fit(X_train, y_train, batch_size=32, epochs=20,
-          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
-          verbose=2, shuffle=True)</t>
-    </r>
   </si>
   <si>
     <t>Epoch 00009: val_loss improved from 0.66938 to 0.63044, saving model to model_9.weights.best.hdf5</t>
@@ -559,48 +476,6 @@
   </si>
   <si>
     <t>Test accuracy: 0.532</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">model_10.weights.best.hdf5'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-model = Sequential()
-model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
-model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
-model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
-model.add(MaxPooling2D(pool_size=2))
-model.add(Conv2D(filters=64, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
-model.add(MaxPooling2D(pool_size=2))
-model.add(Conv2D(filters=128, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
-model.add(MaxPooling2D(pool_size=2))
-model.add(Dropout(0.3))
-model.add(Flatten())
-model.add(Dense(500, activation='relu'))
-model.add(Dropout(0.3))
-model.add(Dense(num_classes, activation='softmax'))
-checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
-                               save_best_only=True)
-hist = model.fit(X_train, y_train, batch_size=32, epochs=20,
-          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
-          verbose=2, shuffle=True)</t>
-    </r>
   </si>
   <si>
     <t>C:\\Users\\Rodolfo\\Documents\\algoritmos-git\\custom_cnn\\Data\\Processados\\28-28</t>
@@ -635,44 +510,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">model_12.weights.best.hdf5'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>model = Sequential()
-model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
-model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
-model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
-model.add(MaxPooling2D(pool_size=2))
-model.add(Dropout(0.3))
-model.add(Flatten())
-model.add(Dense(250, activation='relu'))
-model.add(Dropout(0.3))
-model.add(Dense(num_classes, activation='softmax'))
-# train the model
-checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
-                               save_best_only=True)
-hist = model.fit(X_train, y_train, batch_size=32, epochs=20,
-          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
-          verbose=2, shuffle=True)</t>
-    </r>
-  </si>
-  <si>
     <t>Epoch 00019: val_loss improved from 0.61492 to 0.60026, saving model to model_12.weights.best.hdf5
 Epoch 20/20
  - 2s - loss: 0.5029 - acc: 0.7583 - val_loss: 0.7102 - val_acc: 0.5950</t>
@@ -723,6 +560,258 @@
   </si>
   <si>
     <t>Epoch 00016: val_loss improved from 0.61066 to 0.60803, saving model to model_13.weights.best.hdf5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_12.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(250, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+# train the model
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=50,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_10.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=64, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=128, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(500, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=50,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_9.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=64, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=128, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(500, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+# train the model
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=50,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_7.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Conv2D(filters=64, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(250, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=50,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_14.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(2,2)))
+model.add(MaxPooling2D(pool_size=2))
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(100, activation='relu'))
+model.add(Dropout(0.3))
+model.add(Dense(num_classes, activation='softmax'))
+# train the model
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=32, epochs=200,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test accuracy: 0.69</t>
+  </si>
+  <si>
+    <t>Epoch 00018: val_loss improved from 0.79674 to 0.79309, saving model to model_14.weights.best.hdf5
+Epoch 19/200
+ - 2s - loss: 0.1064 - acc: 0.9644 - val_loss: 1.0644 - val_acc: 0.6900</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_15.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2,strides=2))
+model.add(Flatten())
+model.add(Dense(200, activation='relu'))
+model.add(Dense(num_classes, activation='sigmoid'))
+model.summary()
+# train the model
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=50, epochs=100,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>Epoch 00003: val_loss improved from 0.83213 to 0.83071, saving model to model_15.weights.best.hdf5</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.677</t>
   </si>
 </sst>
 </file>
@@ -813,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,32 +929,50 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G31" sqref="B31:G31"/>
+    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1179,15 +1286,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="9" t="s">
@@ -1457,11 +1564,11 @@
         <v>32</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>29</v>
@@ -1487,14 +1594,14 @@
         <v>25</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="330">
@@ -1508,50 +1615,85 @@
         <v>32</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="285">
+      <c r="B29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="C29" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="285">
-      <c r="B29" s="11" t="s">
+      <c r="D29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="11" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="285">
+      <c r="B31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="285">
-      <c r="B31" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>50</v>
+    </row>
+    <row r="34" spans="3:7" ht="285">
+      <c r="C34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="3:7" ht="270">
+      <c r="C37" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/experimentos CNN.xlsx
+++ b/experimentos CNN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>CNN - Experimentos</t>
   </si>
@@ -813,12 +813,79 @@
   <si>
     <t>Test accuracy: 0.677</t>
   </si>
+  <si>
+    <t>Epoch 00010: val_loss improved from 0.58493 to 0.58250, saving model to model_16.weights.best.hdf5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Imagem por canal:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+X_train: (1800, 28,28,2)
+X_val: (400, 28,28, 2)
+X_test: (1000, 28,28,2)
+# rescale [0,255] --&gt; [0,1]
+X_train = X_train.astype('float32')/255
+X_test = X_test.astype('float32')/255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model_16.weights.best.hdf5'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model = Sequential()
+model.add(Conv2D(filters=16, kernel_size=2, padding='valid', activation='relu', strides=(1,1), input_shape=(n_row, n_col, n_chan)))
+model.add(MaxPooling2D(pool_size=2, strides=(1,1)))
+model.add(Conv2D(filters=32, kernel_size=2, padding='valid', activation='relu', strides=(1,1)))
+model.add(MaxPooling2D(pool_size=2,strides=2))
+model.add(Flatten())
+model.add(Dense(200, activation='sigmoid'))
+model.add(Dense(num_classes, activation='softmax'))
+model.summary()
+# train the model
+checkpointer = ModelCheckpoint(filepath=model_path, verbose=1, 
+                               save_best_only=True)
+hist = model.fit(X_train, y_train, batch_size=50, epochs=100,
+          validation_data=(X_valid, y_valid), callbacks=[checkpointer], 
+          verbose=2, shuffle=True)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,8 +921,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,6 +952,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -953,27 +1046,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1286,15 +1396,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="9" t="s">
@@ -1626,6 +1736,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="285">
+      <c r="A29" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="B29" s="10" t="s">
         <v>41</v>
       </c>
@@ -1644,6 +1757,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="285">
+      <c r="A31" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="B31" s="14" t="s">
         <v>41</v>
       </c>
@@ -1661,39 +1777,80 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="285">
-      <c r="C34" s="19" t="s">
+    <row r="34" spans="1:7" ht="285">
+      <c r="A34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="24" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="3:7">
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="F36" s="23"/>
-    </row>
-    <row r="37" spans="3:7" ht="270">
-      <c r="C37" s="19" t="s">
+    <row r="35" spans="1:7">
+      <c r="B35" s="26"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="26"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" ht="270">
+      <c r="A37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>56</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="26"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" ht="270">
+      <c r="A40" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
